--- a/00_config/xlsx/ods_ydac.xlsx
+++ b/00_config/xlsx/ods_ydac.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\AutoETL\00_config\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EAD6D05-E1B6-42EB-93BA-B03BEAF210C2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1602B6E-6B5F-4671-A533-0A0A83BECD71}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="629" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="修改记录" sheetId="1" r:id="rId1"/>
     <sheet name="All_Table_Info" sheetId="25" r:id="rId2"/>
-    <sheet name="p1_property_src_col_lvl" sheetId="31" r:id="rId3"/>
+    <sheet name="p1_property_ods_col_lvl" sheetId="31" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">p1_property_src_col_lvl!$A$1:$J$1065</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">p1_property_ods_col_lvl!$A$1:$J$1065</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="857">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="858">
   <si>
     <t>修改日期</t>
   </si>
@@ -2640,6 +2640,10 @@
   </si>
   <si>
     <t>lock_date</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1_property_ods</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -3239,7 +3243,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D29"/>
+      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3276,7 +3280,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>23</v>
@@ -3296,7 +3300,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>59</v>
@@ -3319,7 +3323,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>108</v>
@@ -3342,7 +3346,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>162</v>
@@ -3356,7 +3360,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B6" s="12" t="s">
         <v>242</v>
@@ -3373,7 +3377,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>349</v>
@@ -3396,7 +3400,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>442</v>
@@ -3419,7 +3423,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>847</v>
@@ -3442,7 +3446,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>486</v>
@@ -3465,7 +3469,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B11" s="12" t="s">
         <v>846</v>
@@ -3479,7 +3483,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B12" s="12" t="s">
         <v>535</v>
@@ -3493,7 +3497,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B13" s="12" t="s">
         <v>544</v>
@@ -3507,7 +3511,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>579</v>
@@ -3521,7 +3525,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>605</v>
@@ -3535,7 +3539,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>628</v>
@@ -3549,7 +3553,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>631</v>
@@ -3563,7 +3567,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>648</v>
@@ -3577,7 +3581,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>653</v>
@@ -3591,7 +3595,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>660</v>
@@ -3605,7 +3609,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>683</v>
@@ -3619,7 +3623,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>687</v>
@@ -3633,7 +3637,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>689</v>
@@ -3647,7 +3651,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>700</v>
@@ -3661,7 +3665,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>713</v>
@@ -3675,7 +3679,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>764</v>
@@ -3689,7 +3693,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>769</v>
@@ -3703,7 +3707,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B28" s="12" t="s">
         <v>774</v>
@@ -3717,7 +3721,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="11" t="s">
-        <v>808</v>
+        <v>857</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>786</v>
